--- a/src/test/YahooCredentials.xlsx
+++ b/src/test/YahooCredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjiaodaiiti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjiaodaiiti\Desktop\Selenium\POM_FromScratch\src\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6709DF8-22B4-4A97-B247-024B5CCD65B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08E89C7-5791-4CBD-B9FD-A6BC75F43DAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{6B676F94-49FD-4B4C-9775-A9266F7A0DE1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Website</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Mayire007</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994AEA35-78F8-4F69-B812-EF4C828CC2D6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,6 +453,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{E19DB117-9BBF-4292-8179-24F642119750}"/>
